--- a/top_league_soccer/Excel/dados_ligue1.xlsx
+++ b/top_league_soccer/Excel/dados_ligue1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="99">
   <si>
     <t>#</t>
   </si>
@@ -97,91 +97,82 @@
     <t>Brest</t>
   </si>
   <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>LOSC Lille</t>
+  </si>
+  <si>
     <t>Nice</t>
   </si>
   <si>
-    <t>LOSC Lille</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
     <t>Lens</t>
   </si>
   <si>
+    <t>Marseille</t>
+  </si>
+  <si>
     <t>Rennes</t>
   </si>
   <si>
     <t>Reims</t>
   </si>
   <si>
-    <t>Marseille</t>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Lyon</t>
   </si>
   <si>
     <t>Strasbourg</t>
   </si>
   <si>
-    <t>Lyon</t>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Nantes</t>
   </si>
   <si>
     <t>Le Havre</t>
   </si>
   <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
     <t>Montpellier</t>
   </si>
   <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
     <t>Metz</t>
   </si>
   <si>
     <t>Clermont</t>
   </si>
   <si>
-    <t>1.3</t>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>1.7</t>
   </si>
   <si>
     <t>2.5</t>
   </si>
   <si>
-    <t>1.8</t>
-  </si>
-  <si>
     <t>1.9</t>
   </si>
   <si>
-    <t>2.6</t>
-  </si>
-  <si>
-    <t>2.2</t>
-  </si>
-  <si>
-    <t>1.6</t>
-  </si>
-  <si>
-    <t>1.7</t>
-  </si>
-  <si>
     <t>2.1</t>
   </si>
   <si>
-    <t>2.0</t>
-  </si>
-  <si>
     <t>1.5</t>
   </si>
   <si>
     <t>5.4</t>
   </si>
   <si>
-    <t>4.6</t>
+    <t>4.4</t>
   </si>
   <si>
     <t>5.5</t>
@@ -190,136 +181,136 @@
     <t>5.6</t>
   </si>
   <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>5.8</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
     <t>5.1</t>
   </si>
   <si>
-    <t>5.8</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>4.7</t>
-  </si>
-  <si>
     <t>3.7</t>
   </si>
   <si>
-    <t>4.1</t>
-  </si>
-  <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>3.4</t>
+    <t>4.2</t>
   </si>
   <si>
     <t>3.9</t>
   </si>
   <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>91%</t>
-  </si>
-  <si>
-    <t>68%</t>
-  </si>
-  <si>
-    <t>45%</t>
-  </si>
-  <si>
-    <t>77%</t>
-  </si>
-  <si>
-    <t>86%</t>
-  </si>
-  <si>
-    <t>69%</t>
+    <t>88%</t>
+  </si>
+  <si>
+    <t>67%</t>
+  </si>
+  <si>
+    <t>83%</t>
   </si>
   <si>
     <t>76%</t>
   </si>
   <si>
-    <t>82%</t>
-  </si>
-  <si>
-    <t>73%</t>
+    <t>46%</t>
+  </si>
+  <si>
+    <t>72%</t>
+  </si>
+  <si>
+    <t>75%</t>
+  </si>
+  <si>
+    <t>78%</t>
+  </si>
+  <si>
+    <t>79%</t>
+  </si>
+  <si>
+    <t>66%</t>
+  </si>
+  <si>
+    <t>61%</t>
   </si>
   <si>
     <t>63%</t>
   </si>
   <si>
-    <t>83%</t>
+    <t>38%</t>
+  </si>
+  <si>
+    <t>37%</t>
+  </si>
+  <si>
+    <t>21%</t>
+  </si>
+  <si>
+    <t>42%</t>
+  </si>
+  <si>
+    <t>52%</t>
+  </si>
+  <si>
+    <t>54%</t>
   </si>
   <si>
     <t>58%</t>
   </si>
   <si>
-    <t>36%</t>
-  </si>
-  <si>
-    <t>18%</t>
-  </si>
-  <si>
-    <t>37%</t>
-  </si>
-  <si>
-    <t>53%</t>
-  </si>
-  <si>
-    <t>55%</t>
-  </si>
-  <si>
-    <t>41%</t>
+    <t>43%</t>
   </si>
   <si>
     <t>50%</t>
   </si>
   <si>
-    <t>54%</t>
-  </si>
-  <si>
-    <t>47%</t>
-  </si>
-  <si>
-    <t>3.23</t>
-  </si>
-  <si>
-    <t>2.23</t>
-  </si>
-  <si>
-    <t>1.68</t>
-  </si>
-  <si>
-    <t>3.32</t>
-  </si>
-  <si>
-    <t>2.73</t>
-  </si>
-  <si>
-    <t>2.64</t>
-  </si>
-  <si>
-    <t>2.41</t>
+    <t>3.04</t>
+  </si>
+  <si>
+    <t>2.21</t>
+  </si>
+  <si>
+    <t>3.25</t>
+  </si>
+  <si>
+    <t>2.25</t>
+  </si>
+  <si>
+    <t>1.67</t>
+  </si>
+  <si>
+    <t>2.38</t>
+  </si>
+  <si>
+    <t>2.67</t>
+  </si>
+  <si>
+    <t>2.71</t>
+  </si>
+  <si>
+    <t>2.58</t>
+  </si>
+  <si>
+    <t>2.46</t>
+  </si>
+  <si>
+    <t>2.63</t>
+  </si>
+  <si>
+    <t>2.29</t>
   </si>
   <si>
     <t>2.50</t>
   </si>
   <si>
-    <t>2.59</t>
-  </si>
-  <si>
-    <t>2.32</t>
-  </si>
-  <si>
-    <t>2.36</t>
-  </si>
-  <si>
-    <t>3.36</t>
-  </si>
-  <si>
-    <t>2.55</t>
+    <t>2.42</t>
   </si>
 </sst>
 </file>
@@ -717,16 +708,16 @@
         <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -740,16 +731,16 @@
         <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -760,19 +751,19 @@
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F4" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -783,19 +774,19 @@
         <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -806,19 +797,19 @@
         <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -829,16 +820,16 @@
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s">
         <v>90</v>
@@ -852,19 +843,19 @@
         <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="G8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -875,19 +866,19 @@
         <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -898,19 +889,19 @@
         <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -921,19 +912,19 @@
         <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -944,19 +935,19 @@
         <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F12" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -970,16 +961,16 @@
         <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F13" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G13" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -990,19 +981,19 @@
         <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E14" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F14" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="G14" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1013,19 +1004,19 @@
         <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F15" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G15" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1036,19 +1027,19 @@
         <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" t="s">
         <v>65</v>
       </c>
-      <c r="E16" t="s">
-        <v>75</v>
-      </c>
       <c r="F16" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="G16" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1059,19 +1050,19 @@
         <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F17" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1082,19 +1073,19 @@
         <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E18" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G18" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1105,19 +1096,19 @@
         <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E19" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/top_league_soccer/Excel/dados_ligue1.xlsx
+++ b/top_league_soccer/Excel/dados_ligue1.xlsx
@@ -103,12 +103,12 @@
     <t>LOSC Lille</t>
   </si>
   <si>
+    <t>Lens</t>
+  </si>
+  <si>
     <t>Nice</t>
   </si>
   <si>
-    <t>Lens</t>
-  </si>
-  <si>
     <t>Marseille</t>
   </si>
   <si>
@@ -118,10 +118,16 @@
     <t>Reims</t>
   </si>
   <si>
+    <t>Lyon</t>
+  </si>
+  <si>
     <t>Toulouse</t>
   </si>
   <si>
-    <t>Lyon</t>
+    <t>Le Havre</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
   </si>
   <si>
     <t>Strasbourg</t>
@@ -133,12 +139,6 @@
     <t>Nantes</t>
   </si>
   <si>
-    <t>Le Havre</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
     <t>Metz</t>
   </si>
   <si>
@@ -151,166 +151,166 @@
     <t>2.4</t>
   </si>
   <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
     <t>1.8</t>
   </si>
   <si>
     <t>1.7</t>
   </si>
   <si>
-    <t>2.5</t>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>2.1</t>
   </si>
   <si>
     <t>1.9</t>
   </si>
   <si>
-    <t>2.1</t>
-  </si>
-  <si>
     <t>1.5</t>
   </si>
   <si>
-    <t>5.4</t>
+    <t>5.5</t>
   </si>
   <si>
     <t>4.4</t>
   </si>
   <si>
-    <t>5.5</t>
-  </si>
-  <si>
     <t>5.6</t>
   </si>
   <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>5.7</t>
+  </si>
+  <si>
     <t>5.2</t>
   </si>
   <si>
-    <t>5.8</t>
-  </si>
-  <si>
     <t>4.5</t>
   </si>
   <si>
     <t>4.3</t>
   </si>
   <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
     <t>3.4</t>
   </si>
   <si>
-    <t>5.1</t>
-  </si>
-  <si>
-    <t>3.7</t>
-  </si>
-  <si>
-    <t>4.2</t>
-  </si>
-  <si>
     <t>3.9</t>
   </si>
   <si>
     <t>88%</t>
   </si>
   <si>
-    <t>67%</t>
-  </si>
-  <si>
-    <t>83%</t>
+    <t>64%</t>
+  </si>
+  <si>
+    <t>80%</t>
   </si>
   <si>
     <t>76%</t>
   </si>
   <si>
-    <t>46%</t>
-  </si>
-  <si>
-    <t>72%</t>
-  </si>
-  <si>
-    <t>75%</t>
-  </si>
-  <si>
-    <t>78%</t>
+    <t>68%</t>
+  </si>
+  <si>
+    <t>48%</t>
   </si>
   <si>
     <t>79%</t>
   </si>
   <si>
-    <t>66%</t>
-  </si>
-  <si>
-    <t>61%</t>
+    <t>84%</t>
+  </si>
+  <si>
+    <t>59%</t>
   </si>
   <si>
     <t>63%</t>
   </si>
   <si>
-    <t>38%</t>
-  </si>
-  <si>
-    <t>37%</t>
-  </si>
-  <si>
-    <t>21%</t>
-  </si>
-  <si>
-    <t>42%</t>
+    <t>36%</t>
+  </si>
+  <si>
+    <t>40%</t>
+  </si>
+  <si>
+    <t>24%</t>
+  </si>
+  <si>
+    <t>44%</t>
+  </si>
+  <si>
+    <t>55%</t>
   </si>
   <si>
     <t>52%</t>
   </si>
   <si>
-    <t>54%</t>
-  </si>
-  <si>
-    <t>58%</t>
-  </si>
-  <si>
-    <t>43%</t>
-  </si>
-  <si>
-    <t>50%</t>
-  </si>
-  <si>
-    <t>3.04</t>
-  </si>
-  <si>
-    <t>2.21</t>
-  </si>
-  <si>
-    <t>3.25</t>
-  </si>
-  <si>
-    <t>2.25</t>
-  </si>
-  <si>
-    <t>1.67</t>
-  </si>
-  <si>
-    <t>2.38</t>
-  </si>
-  <si>
-    <t>2.67</t>
-  </si>
-  <si>
-    <t>2.71</t>
-  </si>
-  <si>
-    <t>2.58</t>
-  </si>
-  <si>
-    <t>2.46</t>
-  </si>
-  <si>
-    <t>2.63</t>
-  </si>
-  <si>
-    <t>2.29</t>
-  </si>
-  <si>
-    <t>2.50</t>
-  </si>
-  <si>
-    <t>2.42</t>
+    <t>56%</t>
+  </si>
+  <si>
+    <t>47%</t>
+  </si>
+  <si>
+    <t>3.08</t>
+  </si>
+  <si>
+    <t>2.16</t>
+  </si>
+  <si>
+    <t>3.16</t>
+  </si>
+  <si>
+    <t>2.32</t>
+  </si>
+  <si>
+    <t>1.72</t>
+  </si>
+  <si>
+    <t>2.64</t>
+  </si>
+  <si>
+    <t>2.76</t>
+  </si>
+  <si>
+    <t>2.60</t>
+  </si>
+  <si>
+    <t>2.40</t>
+  </si>
+  <si>
+    <t>2.24</t>
+  </si>
+  <si>
+    <t>2.52</t>
+  </si>
+  <si>
+    <t>3.20</t>
+  </si>
+  <si>
+    <t>2.44</t>
+  </si>
+  <si>
+    <t>2.36</t>
   </si>
 </sst>
 </file>
@@ -708,13 +708,13 @@
         <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s">
         <v>85</v>
@@ -731,13 +731,13 @@
         <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s">
         <v>86</v>
@@ -751,16 +751,16 @@
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="G4" t="s">
         <v>87</v>
@@ -774,16 +774,16 @@
         <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s">
         <v>88</v>
@@ -797,19 +797,19 @@
         <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F6" t="s">
         <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -820,19 +820,19 @@
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F7" t="s">
         <v>79</v>
       </c>
       <c r="G7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -843,7 +843,7 @@
         <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
         <v>56</v>
@@ -852,10 +852,10 @@
         <v>70</v>
       </c>
       <c r="F8" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -866,19 +866,19 @@
         <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -889,19 +889,19 @@
         <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F10" t="s">
         <v>81</v>
       </c>
       <c r="G10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -912,19 +912,19 @@
         <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -935,19 +935,19 @@
         <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -958,19 +958,19 @@
         <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E13" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F13" t="s">
         <v>82</v>
       </c>
       <c r="G13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -981,19 +981,19 @@
         <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="G14" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1004,19 +1004,19 @@
         <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F15" t="s">
         <v>83</v>
       </c>
       <c r="G15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1027,16 +1027,16 @@
         <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E16" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F16" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="G16" t="s">
         <v>96</v>
@@ -1050,16 +1050,16 @@
         <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E17" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F17" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s">
         <v>97</v>
@@ -1073,16 +1073,16 @@
         <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F18" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="G18" t="s">
         <v>98</v>
@@ -1096,13 +1096,13 @@
         <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E19" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="F19" t="s">
         <v>84</v>

--- a/top_league_soccer/Excel/dados_ligue1.xlsx
+++ b/top_league_soccer/Excel/dados_ligue1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="103">
   <si>
     <t>#</t>
   </si>
@@ -94,58 +94,58 @@
     <t>PSG</t>
   </si>
   <si>
+    <t>Monaco</t>
+  </si>
+  <si>
     <t>Brest</t>
   </si>
   <si>
-    <t>Monaco</t>
-  </si>
-  <si>
     <t>LOSC Lille</t>
   </si>
   <si>
+    <t>Nice</t>
+  </si>
+  <si>
     <t>Lens</t>
   </si>
   <si>
-    <t>Nice</t>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Lyon</t>
   </si>
   <si>
     <t>Marseille</t>
   </si>
   <si>
-    <t>Rennes</t>
-  </si>
-  <si>
     <t>Reims</t>
   </si>
   <si>
-    <t>Lyon</t>
-  </si>
-  <si>
     <t>Toulouse</t>
   </si>
   <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Metz</t>
+  </si>
+  <si>
     <t>Le Havre</t>
   </si>
   <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
     <t>Lorient</t>
   </si>
   <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Metz</t>
-  </si>
-  <si>
     <t>Clermont</t>
   </si>
   <si>
-    <t>1.4</t>
+    <t>1.5</t>
   </si>
   <si>
     <t>2.4</t>
@@ -154,163 +154,175 @@
     <t>2.5</t>
   </si>
   <si>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
     <t>2.0</t>
   </si>
   <si>
     <t>2.3</t>
   </si>
   <si>
-    <t>1.8</t>
-  </si>
-  <si>
-    <t>1.7</t>
+    <t>2.1</t>
   </si>
   <si>
     <t>1.6</t>
   </si>
   <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>1.9</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>5.5</t>
+    <t>5.7</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>5.6</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>4.3</t>
   </si>
   <si>
     <t>4.4</t>
   </si>
   <si>
-    <t>5.6</t>
+    <t>3.6</t>
   </si>
   <si>
     <t>5.1</t>
   </si>
   <si>
-    <t>5.7</t>
-  </si>
-  <si>
-    <t>5.2</t>
-  </si>
-  <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>3.7</t>
-  </si>
-  <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>3.4</t>
+    <t>4.1</t>
   </si>
   <si>
     <t>3.9</t>
   </si>
   <si>
-    <t>88%</t>
-  </si>
-  <si>
-    <t>64%</t>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>90%</t>
+  </si>
+  <si>
+    <t>79%</t>
+  </si>
+  <si>
+    <t>67%</t>
+  </si>
+  <si>
+    <t>76%</t>
+  </si>
+  <si>
+    <t>51%</t>
+  </si>
+  <si>
+    <t>70%</t>
   </si>
   <si>
     <t>80%</t>
   </si>
   <si>
-    <t>76%</t>
-  </si>
-  <si>
-    <t>68%</t>
-  </si>
-  <si>
-    <t>48%</t>
-  </si>
-  <si>
-    <t>79%</t>
-  </si>
-  <si>
-    <t>84%</t>
-  </si>
-  <si>
-    <t>59%</t>
+    <t>73%</t>
   </si>
   <si>
     <t>63%</t>
   </si>
   <si>
-    <t>36%</t>
-  </si>
-  <si>
-    <t>40%</t>
-  </si>
-  <si>
-    <t>24%</t>
-  </si>
-  <si>
-    <t>44%</t>
-  </si>
-  <si>
-    <t>55%</t>
-  </si>
-  <si>
-    <t>52%</t>
-  </si>
-  <si>
-    <t>56%</t>
+    <t>61%</t>
+  </si>
+  <si>
+    <t>62%</t>
+  </si>
+  <si>
+    <t>37%</t>
+  </si>
+  <si>
+    <t>41%</t>
+  </si>
+  <si>
+    <t>31%</t>
+  </si>
+  <si>
+    <t>43%</t>
+  </si>
+  <si>
+    <t>53%</t>
+  </si>
+  <si>
+    <t>57%</t>
+  </si>
+  <si>
+    <t>45%</t>
   </si>
   <si>
     <t>47%</t>
   </si>
   <si>
-    <t>3.08</t>
-  </si>
-  <si>
-    <t>2.16</t>
-  </si>
-  <si>
-    <t>3.16</t>
-  </si>
-  <si>
-    <t>2.32</t>
-  </si>
-  <si>
-    <t>1.72</t>
-  </si>
-  <si>
-    <t>2.64</t>
-  </si>
-  <si>
-    <t>2.76</t>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>3.24</t>
+  </si>
+  <si>
+    <t>3.21</t>
+  </si>
+  <si>
+    <t>2.43</t>
+  </si>
+  <si>
+    <t>2.34</t>
+  </si>
+  <si>
+    <t>1.83</t>
+  </si>
+  <si>
+    <t>2.37</t>
+  </si>
+  <si>
+    <t>2.67</t>
+  </si>
+  <si>
+    <t>2.93</t>
+  </si>
+  <si>
+    <t>2.69</t>
   </si>
   <si>
     <t>2.60</t>
   </si>
   <si>
-    <t>2.40</t>
-  </si>
-  <si>
-    <t>2.24</t>
-  </si>
-  <si>
-    <t>2.52</t>
-  </si>
-  <si>
-    <t>3.20</t>
-  </si>
-  <si>
-    <t>2.44</t>
-  </si>
-  <si>
-    <t>2.36</t>
+    <t>2.50</t>
+  </si>
+  <si>
+    <t>2.47</t>
+  </si>
+  <si>
+    <t>2.53</t>
+  </si>
+  <si>
+    <t>2.17</t>
+  </si>
+  <si>
+    <t>3.10</t>
+  </si>
+  <si>
+    <t>2.33</t>
   </si>
 </sst>
 </file>
@@ -708,7 +720,7 @@
         <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
         <v>67</v>
@@ -717,7 +729,7 @@
         <v>76</v>
       </c>
       <c r="G2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -731,7 +743,7 @@
         <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
         <v>68</v>
@@ -740,7 +752,7 @@
         <v>77</v>
       </c>
       <c r="G3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -754,16 +766,16 @@
         <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
         <v>69</v>
       </c>
       <c r="F4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -777,16 +789,16 @@
         <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
         <v>70</v>
       </c>
       <c r="F5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -800,16 +812,16 @@
         <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
         <v>71</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -820,19 +832,19 @@
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
         <v>72</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -843,19 +855,19 @@
         <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G8" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -866,19 +878,19 @@
         <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G9" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -892,16 +904,16 @@
         <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
         <v>73</v>
       </c>
       <c r="F10" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G10" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -912,19 +924,19 @@
         <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G11" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -935,19 +947,19 @@
         <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G12" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -958,19 +970,19 @@
         <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F13" t="s">
         <v>82</v>
       </c>
       <c r="G13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -981,19 +993,19 @@
         <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G14" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1004,19 +1016,19 @@
         <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G15" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1027,19 +1039,19 @@
         <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E16" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="G16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1050,19 +1062,19 @@
         <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E17" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F17" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G17" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1073,19 +1085,19 @@
         <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
         <v>66</v>
       </c>
       <c r="E18" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1099,16 +1111,16 @@
         <v>48</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E19" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G19" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
